--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\rowing\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08FA2AB-10C4-4849-AD21-9AD67F58268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38CC33-C806-49AD-8169-6CC0CAB1D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1980" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="group" sheetId="1" r:id="rId1"/>
-    <sheet name="item" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>label</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,27 +48,6 @@
     <t>yyyy-MM-ddHH:mm:ss</t>
   </si>
   <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>authenticate</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>允许上传的附件类型</t>
   </si>
   <si>
@@ -89,143 +63,185 @@
     <t>网站标题</t>
   </si>
   <si>
+    <t>行舟在线考试系统</t>
+  </si>
+  <si>
+    <t>欢迎文字</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>欢迎来到行舟在线考试系统</t>
+  </si>
+  <si>
+    <t>网站作者</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>mrzhqiang</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>287431404@qq.com</t>
+  </si>
+  <si>
+    <t>版权声明</t>
+  </si>
+  <si>
+    <t>copy-right</t>
+  </si>
+  <si>
+    <t>分页大小</t>
+  </si>
+  <si>
+    <t>page-size</t>
+  </si>
+  <si>
+    <t>日期格式</t>
+  </si>
+  <si>
+    <t>date-format</t>
+  </si>
+  <si>
+    <t>时间格式</t>
+  </si>
+  <si>
+    <t>time-format</t>
+  </si>
+  <si>
+    <t>日期时间格式</t>
+  </si>
+  <si>
+    <t>date-time-format</t>
+  </si>
+  <si>
+    <t>认证开关</t>
+  </si>
+  <si>
+    <t>自动登录</t>
+  </si>
+  <si>
+    <t>自动注册</t>
+  </si>
+  <si>
+    <t>最短密码长度</t>
+  </si>
+  <si>
+    <t>min-password-length</t>
+  </si>
+  <si>
+    <t>密码规则</t>
+  </si>
+  <si>
+    <t>password-regulation</t>
+  </si>
+  <si>
+    <t>密码有效期</t>
+  </si>
+  <si>
+    <t>password-expire</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>password-forget</t>
+  </si>
+  <si>
+    <t>附件大小</t>
+  </si>
+  <si>
+    <t>attachment-size</t>
+  </si>
+  <si>
+    <t>100kb</t>
+  </si>
+  <si>
+    <t>附件名称编码规则</t>
+  </si>
+  <si>
+    <t>attachment-name-regulation</t>
+  </si>
+  <si>
+    <t>DIGIT;UPPER_CASE;LOWER_CASE;SPECIAL_CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg;png;docx;xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${filename}-${date-time-format}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powered by Rowing©2022-2022 mrzhqiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto-login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto-register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>行舟在线考试系统</t>
-  </si>
-  <si>
-    <t>欢迎文字</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>欢迎来到行舟在线考试系统</t>
-  </si>
-  <si>
-    <t>网站作者</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>mrzhqiang</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>287431404@qq.com</t>
-  </si>
-  <si>
-    <t>版权声明</t>
-  </si>
-  <si>
-    <t>copy-right</t>
-  </si>
-  <si>
-    <t>PoweredbyRowing©2022-2022mrzhqiang</t>
-  </si>
-  <si>
-    <t>分页大小</t>
-  </si>
-  <si>
-    <t>page-size</t>
-  </si>
-  <si>
-    <t>日期格式</t>
-  </si>
-  <si>
-    <t>date-format</t>
-  </si>
-  <si>
-    <t>时间格式</t>
-  </si>
-  <si>
-    <t>time-format</t>
-  </si>
-  <si>
-    <t>日期时间格式</t>
-  </si>
-  <si>
-    <t>date-time-format</t>
-  </si>
-  <si>
-    <t>认证开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>auth-switch</t>
-  </si>
-  <si>
-    <t>自动登录</t>
-  </si>
-  <si>
-    <t>自动注册</t>
-  </si>
-  <si>
-    <t>name-format</t>
-  </si>
-  <si>
-    <t>最短密码长度</t>
-  </si>
-  <si>
-    <t>min-password-length</t>
-  </si>
-  <si>
-    <t>密码规则</t>
-  </si>
-  <si>
-    <t>password-regulation</t>
-  </si>
-  <si>
-    <t>密码有效期</t>
-  </si>
-  <si>
-    <t>password-expire</t>
-  </si>
-  <si>
-    <t>忘记密码</t>
-  </si>
-  <si>
-    <t>password-forget</t>
-  </si>
-  <si>
-    <t>附件大小</t>
-  </si>
-  <si>
-    <t>attachment-size</t>
-  </si>
-  <si>
-    <t>100kb</t>
-  </si>
-  <si>
-    <t>附件名称编码规则</t>
-  </si>
-  <si>
-    <t>attachment-name-regulation</t>
-  </si>
-  <si>
-    <t>禁止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIGIT;UPPER_CASE;LOWER_CASE;SPECIAL_CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpeg;png;docx;xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${filename}-${date-time-format}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCHES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,551 +596,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="36.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\rowing\rowing\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38CC33-C806-49AD-8169-6CC0CAB1D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A1BC4-5513-48B0-B955-8254BB906294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +171,6 @@
     <t>attachment-name-regulation</t>
   </si>
   <si>
-    <t>DIGIT;UPPER_CASE;LOWER_CASE;SPECIAL_CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpeg;png;docx;xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${filename}-${date-time-format}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,7 +233,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180天</t>
+    <t>DIGIT|UPPER_CASE|LOWER_CASE|SPECIAL_CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg|png|docx|xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +608,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -624,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,16 +640,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -658,7 +666,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -666,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -675,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -683,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -692,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,16 +708,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -726,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -743,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -760,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -768,7 +776,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -777,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,16 +793,16 @@
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,16 +810,16 @@
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,16 +827,16 @@
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="b">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -836,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
@@ -845,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -853,16 +861,16 @@
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -870,16 +878,16 @@
         <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -887,16 +895,16 @@
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="b">
-        <v>1</v>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>43</v>
@@ -913,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -938,14 +946,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -953,16 +961,16 @@
         <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A1BC4-5513-48B0-B955-8254BB906294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E611E6-D32D-48E5-85E1-F9FAE52FB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yyyy-MM-dd</t>
   </si>
   <si>
@@ -185,10 +181,6 @@
     <t>FILE</t>
   </si>
   <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Powered by Rowing©2022-2022 mrzhqiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +242,14 @@
   </si>
   <si>
     <t>jpeg|png|docx|xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +608,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,354 +623,354 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E611E6-D32D-48E5-85E1-F9FAE52FB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B9E4C-C7FD-4F54-A117-214D85A3A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,42 @@
   </si>
   <si>
     <t>tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECUTIRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max-login-failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败次数上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号锁定持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-login-failed-duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-locked-duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +644,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,22 +1010,55 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B9E4C-C7FD-4F54-A117-214D85A3A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5336243-0A02-430D-9C32-9D38D0C4C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max-login-failed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,19 +265,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录失败持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号锁定持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first-login-failed-duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account-locked-duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,13 +999,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
@@ -1028,37 +1016,26 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -1137,12 +1114,6 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5336243-0A02-430D-9C32-9D38D0C4C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F76B6B-958E-4244-9505-83853A82F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <t>FILE</t>
   </si>
   <si>
-    <t>Powered by Rowing©2022-2022 mrzhqiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto-login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +270,74 @@
   </si>
   <si>
     <t>30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powered by Rowing©2022-9999 mrzhqiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home-path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dashborad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287431404@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-phone-number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8613888888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码传输时的RSA私钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password-rsa-private-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码传输时的RSA公钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password-rsa-public-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAl23OJ3yD1f1NYAhkrqFVb2mIpW9OPxFENEMk1n4GqySTDVghvwtdDP5JyRbwAjeb7Kx3RogHerbbQ9jffISO4/Fkeeq7ghQG+iuO1lc1lvAdIhWHZJSSxcm4YnwMVkiO3Fqqtdi9grjBkO8jLALTHZXIG4mVq/L02wCGOr407I+TtIky+ZAilDzgHzpsqH8rwQk1Yn2qzsyIA4I0FDrsvH7YXebsAxsN8t6brCHhnCeu7NKKH6KL9r9+8rdg1sD+JDBrc6cEw/nsa/8/8RM3HafwH9r5iLe3wcTtqIx7vGMruFA4xU6XdSqBOurX8/kBbnN7oC9zhO+4tPph4oqyJwIDAQAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQCXbc4nfIPV/U1gCGSuoVVvaYilb04/EUQ0QyTWfgarJJMNWCG/C10M/knJFvACN5vsrHdGiAd6tttD2N98hI7j8WR56ruCFAb6K47WVzWW8B0iFYdklJLFybhifAxWSI7cWqq12L2CuMGQ7yMsAtMdlcgbiZWr8vTbAIY6vjTsj5O0iTL5kCKUPOAfOmyofyvBCTVifarOzIgDgjQUOuy8fthd5uwDGw3y3pusIeGcJ67s0oofoov2v37yt2DWwP4kMGtzpwTD+exr/z/xEzcdp/Af2vmIt7fBxO2ojHu8Yyu4UDjFTpd1KoE66tfz+QFuc3ugL3OE77i0+mHiirInAgMBAAECggEAI0oitg8NhkwewReTpyLQD0PP5YX3/Tif5XIUXqxGD5JZds2oJ6aVS9bjCSsASfP9sX1L2rMO0ylUFg6vnowh5Ls3yDXM9vaF3b1S716pjYBtuai8wdLiFZf6EXGJSn5kVLQIfpKBL7qw2X7xems6GfXzCX/Z0pWvPG512bDEErDTWAwCoA++YesnY2+v0l/TzJR1mZkfNt82c7tIOU2Cft0kzFB9BJST4HrRVu3klHHCPOXDuqGcsQPPFcj8ctWekU+XxGe2RH3dCA3xGsqNxhwZ6l1TxT3rHWWffQf2yEvwfXZlhAFaPufL1T3wmU6/8LMia1cmaVfubUwTxvpM2QKBgQDJFnpuRoc6OHDUmMVLXoVm7TMtEHHngVO9eZpmPbWU3Fus1JqUANBYwp4SaQcAXc/d40gkmBLdDgpE8lFwSg4+TylV5LWuw0UHKY0NHCrO2HW2EOzrr/sjj6MbkKT7smm8PTFFH3XWm4ncm7M42QogkaagIXE67hCyQ+tePlzjgwKBgQDAx84OqsgquTNTK9OG7ilV29xMXyQ0V8584hNzt8BDgQEqm1QzDGfmGQ8ki77zX7n6U61ZznlRXmZHGWN4xjB8+KS1g7AJyMmnhycA2mC6ue0VsdCrMe4rpf4jG6a8hvhmWxuvAJiizxm7uALxRDYLQwcrRbovh6EPtPwn+sShjQKBgQCfXWwsJ0MWlhJ9upFp2QA6gTQ0u7q58ZnPKSd/bdqRnk4dW+Uh9L8qCRtDle8RkEekH3NWZRtWC8GBwNVf+6DsKsqkovyGA4WaVojN4gvfIFexshpB85dCKJzoxKqsO0pm/8wjbvpx2ZTZvJ++JuxKwYPfloFpZbDfxsorR5tQRwKBgQCVBN5/7/wzKl5GWIZ2svs4529vicwOuiFf39JxjQUOKVahfNilbV2TPKO7+Fpu/vxgSPajiTu2bmZZZ4LBBVLOB9YqidU2ewOGgK7hte036ikesAlBjKMzEmlU8jb9XMf/N0Y7DRbwI28c8K01myi7o+CSzp+RxiH2ZkzVCr+csQKBgAbvLosbNTXii8cqll3rNZoiDEuYxq7s2QLkOV244DySYeRv/XIo5mLefGeCY5ccflKHL8Sei3Hsw/tzuepHIshS7teR4dzZ/l136swqi5qHx5ZAPxRUCxgpADg4GGHIyK8zwLKHWANWQpfwoDq+SOpyny+cg366Fkh82IoTwpxh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,17 +361,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -338,15 +401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,495 +691,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="36.625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D28" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1C778-B9B6-4A45-BF6D-8163B09F461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C970128A-F840-4D21-80F3-58CF712E43C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40875" yWindow="1890" windowWidth="23085" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SECUTIRY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录失败次数上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +327,10 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECURITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D24" activeCellId="1" sqref="D25 D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>35</v>
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -901,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -929,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -983,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -994,69 +994,69 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>25</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>25</v>

--- a/src/main/resources/data/setting.xlsx
+++ b/src/main/resources/data/setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C970128A-F840-4D21-80F3-58CF712E43C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE595F-851E-46D9-A244-7C1CF290FFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -25,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>HH:mm:ss</t>
-  </si>
-  <si>
-    <t>yyyy-MM-ddHH:mm:ss</t>
-  </si>
-  <si>
     <t>允许上传的附件类型</t>
   </si>
   <si>
@@ -70,40 +61,18 @@
     <t>287431404@qq.com</t>
   </si>
   <si>
-    <t>认证开关</t>
-  </si>
-  <si>
-    <t>自动登录</t>
-  </si>
-  <si>
     <t>自动注册</t>
   </si>
   <si>
-    <t>最短密码长度</t>
-  </si>
-  <si>
-    <t>密码规则</t>
-  </si>
-  <si>
     <t>密码有效期</t>
   </si>
   <si>
-    <t>忘记密码</t>
-  </si>
-  <si>
     <t>附件大小</t>
   </si>
   <si>
     <t>100kb</t>
   </si>
   <si>
-    <t>附件名称编码规则</t>
-  </si>
-  <si>
-    <t>${filename}-${date-time-format}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GENERAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,26 +91,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIGIT|UPPER_CASE|LOWER_CASE|SPECIAL_CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jpeg|png|docx|xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,38 +107,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号锁定持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Powered by Rowing©2022-9999 mrzhqiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/dashborad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>287431404@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+8613888888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,50 +151,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTimeFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authSwitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>autoRegister</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minPasswordLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordRegulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>passwordExpire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passwordForget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attachmentSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachmentNameRegulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxLoginFailed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adminEmail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,22 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分页大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +208,106 @@
   </si>
   <si>
     <t>SECURITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理昵称前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名昵称前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerNicknamePrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNicknamePrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymousNicknamePrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerHomePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymousHomePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userHomePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powered by Rowing©2024 mrzhqiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpeg|png|doc|xls|docx|xlsx|pdf|txt|csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号锁定持续时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" activeCellId="1" sqref="D25 D24"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,390 +682,354 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1109,41 +1050,6 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
